--- a/GuardiansDefense.xlsx
+++ b/GuardiansDefense.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周冠霖\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671CE0A-0F29-43DE-A7F5-0666A559665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B20E3-8169-4AD7-844B-BE0F0DE66CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -436,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -616,6 +616,21 @@
       </c>
       <c r="I6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,7 +659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
